--- a/20170306~20170420阶段报销信息汇总.xlsx
+++ b/20170306~20170420阶段报销信息汇总.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="20170423处理" sheetId="1" r:id="rId1"/>
-    <sheet name="草稿" sheetId="3" r:id="rId2"/>
-    <sheet name="阶段公共消费表" sheetId="2" r:id="rId3"/>
+    <sheet name="总表" sheetId="4" r:id="rId1"/>
+    <sheet name="20170423处理" sheetId="1" r:id="rId2"/>
+    <sheet name="草稿" sheetId="3" r:id="rId3"/>
+    <sheet name="阶段公共消费表" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +202,78 @@
   </si>
   <si>
     <t>报销总额估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销预支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补助紫东额外消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王燊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次获得金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名下补贴余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄学漾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名下补贴余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王兆林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田维养项目部余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工监控项目部余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄学漾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +614,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:W14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" customWidth="1"/>
+    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.4140625" customWidth="1"/>
+    <col min="18" max="18" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1">
+        <f>1075.3+622</f>
+        <v>1697.3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1">
+        <f>394+109</f>
+        <v>503</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1">
+        <v>200</v>
+      </c>
+      <c r="U1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1">
+        <f>960+680</f>
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="2" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <v>680</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <v>240</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2">
+        <v>-16.57</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2">
+        <v>-162.22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2">
+        <v>-1374.8</v>
+      </c>
+    </row>
+    <row r="3" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3">
+        <v>-227.03</v>
+      </c>
+    </row>
+    <row r="4" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <v>-464.1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4">
+        <f>SUM(O1:O2)</f>
+        <v>23.43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4">
+        <f>S1+S2</f>
+        <v>37.78</v>
+      </c>
+      <c r="V4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4">
+        <f>W1+W2</f>
+        <v>265.20000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5">
+        <v>-2000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5">
+        <f>880+320-总表!O1</f>
+        <v>1160</v>
+      </c>
+      <c r="R5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5">
+        <f>760+320-总表!S1</f>
+        <v>880</v>
+      </c>
+      <c r="V5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5">
+        <f>W4</f>
+        <v>265.20000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f>SUM(G1:G5)</f>
+        <v>113.20000000000027</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6">
+        <f>SUM(K1:K3)</f>
+        <v>515.97</v>
+      </c>
+    </row>
+    <row r="7" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <f>G6</f>
+        <v>113.20000000000027</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7">
+        <f>880+200-K2</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <f>1000-G2</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <f>G8+K7+214</f>
+        <v>1374</v>
+      </c>
+      <c r="H11">
+        <v>320</v>
+      </c>
+      <c r="I11">
+        <v>840</v>
+      </c>
+      <c r="J11">
+        <f>G11-H11-I11</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <f>O5+S5+265.2-158-110-80</f>
+        <v>1957.1999999999998</v>
+      </c>
+      <c r="H14">
+        <v>1160</v>
+      </c>
+      <c r="I14">
+        <v>265.2</v>
+      </c>
+      <c r="J14">
+        <v>880</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -688,6 +1041,16 @@
         <v>320</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f>4494-4280</f>
+        <v>214</v>
+      </c>
+      <c r="C6">
+        <f>C2+C3</f>
+        <v>4280.3</v>
+      </c>
+    </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
@@ -704,13 +1067,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1529,7 +1892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>

--- a/20170306~20170420阶段报销信息汇总.xlsx
+++ b/20170306~20170420阶段报销信息汇总.xlsx
@@ -617,7 +617,7 @@
   <dimension ref="E1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J14" sqref="F10:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
